--- a/3_Article_Screen/3_3_Meta/CodeBook_SCOLS_v0.0.3.xlsx
+++ b/3_Article_Screen/3_3_Meta/CodeBook_SCOLS_v0.0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\SCO\3_Article_Screen\3_3_Meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA518D0F-62E0-4629-A5DB-C4BD6AFCB677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C697A-28BA-421E-BC64-1FE0B05755AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19905" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook_SCOLS_v0.0.1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="368">
-  <si>
-    <t>Publication Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="518">
   <si>
     <t>Title</t>
   </si>
@@ -1141,6 +1138,459 @@
   </si>
   <si>
     <t>META</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>KEYWORDS</t>
+  </si>
+  <si>
+    <t>CITED</t>
+  </si>
+  <si>
+    <t>Age differences in social comparison tendency and personal relative deprivation</t>
+  </si>
+  <si>
+    <t>10.1016/j.paid.2015.08.003</t>
+  </si>
+  <si>
+    <t>Country Differences in Social Comparison on Social Media</t>
+  </si>
+  <si>
+    <t>Proceedings of the ACM on Human-Computer Interaction</t>
+  </si>
+  <si>
+    <t>10.1145/3434179</t>
+  </si>
+  <si>
+    <t>Do You Dare to Compare?: The Key Characteristics of Social Media Users Who Frequently Make Online Upward Social Comparisons</t>
+  </si>
+  <si>
+    <t>International Journal of Human–Computer Interaction</t>
+  </si>
+  <si>
+    <t>10.1080/10447318.2021.1976510</t>
+  </si>
+  <si>
+    <t>Look Up, Look Down: Articulating Inputs and Outputs of Social Media Social Comparison</t>
+  </si>
+  <si>
+    <t>Journal of Communication Technology</t>
+  </si>
+  <si>
+    <t>10.51548/joctec-2021-003</t>
+  </si>
+  <si>
+    <t>Perceived partner phubbing predicts lower relationship quality but partners’ enacted phubbing does not</t>
+  </si>
+  <si>
+    <t>10.1016/j.chb.2023.107860</t>
+  </si>
+  <si>
+    <t>Sibling Social Comparison in Mid- to Later Life: Links with Well-Being and Relationship Quality</t>
+  </si>
+  <si>
+    <t>Journal of Family Issues</t>
+  </si>
+  <si>
+    <t>10.1177/0192513X211030726</t>
+  </si>
+  <si>
+    <t>A Similarity Mindset Matters on Social Media: Using Algorithm-Generated Similarity Metrics to Foster Assimilation in Upward Social Comparison</t>
+  </si>
+  <si>
+    <t>Social Media + Society</t>
+  </si>
+  <si>
+    <t>10.1177/2056305119890884</t>
+  </si>
+  <si>
+    <t>Social Comparison Orientations and their Consequences for Justice Perceptions of Earnings</t>
+  </si>
+  <si>
+    <t>Self-esteem, social comparison, and Facebook use</t>
+  </si>
+  <si>
+    <t>Europe’s Journal of Psychology</t>
+  </si>
+  <si>
+    <t>10.5964/ejop.v14i4.1592</t>
+  </si>
+  <si>
+    <t>Examining the Mediating Effects of Social Comparison Between Social Media Use and Mental Health Outcomes</t>
+  </si>
+  <si>
+    <t>Preprint</t>
+  </si>
+  <si>
+    <t>Revealing the Complex Relationship between Social Media Use, Social Comparison Orientation and Optimism on Health Outcomes</t>
+  </si>
+  <si>
+    <t>The effects of social comparison information on cancer survivors' quality of life: a field-experimental intervention approach</t>
+  </si>
+  <si>
+    <t>Passive social network site use and adolescent materialism: Upward social comparison as a mediator</t>
+  </si>
+  <si>
+    <t>10.2224/sbp.8833</t>
+  </si>
+  <si>
+    <t>Comparing Our Abilities on Instagram Makes Us Unhappy – An Exposition Study with Respect to Ability- vs. Opinion-Based Social Comparisons on Instagram</t>
+  </si>
+  <si>
+    <t>Social comparison of ability and fear of missing out mediate the relationship between subjective well-being and social network site addiction</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2023.1157489</t>
+  </si>
+  <si>
+    <t>Social Media Use, Social Comparison, and Loneliness</t>
+  </si>
+  <si>
+    <t>Social Comparisons and Well-Being</t>
+  </si>
+  <si>
+    <t>The Happy Mind: Cognitive Contributions to Well-Being</t>
+  </si>
+  <si>
+    <t>Upward social comparison and depression in social network settings: The roles of envy and self-efficacy</t>
+  </si>
+  <si>
+    <t>Internet Research</t>
+  </si>
+  <si>
+    <t>10.1108/IntR-09-2017-0358</t>
+  </si>
+  <si>
+    <t>The Relationship between Social Media Exposure and Social Comparison Level: Instagram as a Model</t>
+  </si>
+  <si>
+    <t>The Turkish Online Journal of Educational Technology</t>
+  </si>
+  <si>
+    <t>THE GRASS IS GREENER ON THE OTHER SCREEN: A MODERATED MEDIATION ANALYSIS OF SOCIAL MEDIA USE, UPWARD SOCIAL COMPARISON, AND SOCIAL SUPPORT ON DEPRESSION AND SOCIAL SATISFACTION AMONG COLLEGE STUDENTS</t>
+  </si>
+  <si>
+    <t>Changes in Social Comparison Orientation over the Life-span</t>
+  </si>
+  <si>
+    <t>Journal of Clinical &amp; Developmental Psychology</t>
+  </si>
+  <si>
+    <t>10.6092/2612-4033/0110-2359</t>
+  </si>
+  <si>
+    <t>Brand Consciousness, Social Comparison and Materialism amongst Teenagers</t>
+  </si>
+  <si>
+    <t>Pakistan Journal of Humanities and Social Sciences</t>
+  </si>
+  <si>
+    <t>10.52131/pjhss.2023.1102.0416</t>
+  </si>
+  <si>
+    <t>Callan</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Carnelley</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>Kang &amp; Liu</t>
+  </si>
+  <si>
+    <t>Bergagna &amp; Tartaglia</t>
+  </si>
+  <si>
+    <t>Goldfarb</t>
+  </si>
+  <si>
+    <t>Gibbons &amp; Murray-Gibbons</t>
+  </si>
+  <si>
+    <t>Brakel &amp; Dijkstra</t>
+  </si>
+  <si>
+    <t>Hu &amp; Liu</t>
+  </si>
+  <si>
+    <t>Steinberger &amp; Kim</t>
+  </si>
+  <si>
+    <t>Buunk &amp; Dijkstra</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Yahya</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Waqar</t>
+  </si>
+  <si>
+    <t>Cooperative Social Climate and to Individual Differences in Social Comparison Orientation</t>
+  </si>
+  <si>
+    <t>Social comparison orientation and religious commitment influence on outbound travel intentions</t>
+  </si>
+  <si>
+    <t>Asia Pacific Journal of Tourism Research</t>
+  </si>
+  <si>
+    <t>10.1080/10941665.2023.2166419</t>
+  </si>
+  <si>
+    <t>Upward social comparison on mobile social media and depression: The mediating role of envy and the moderating role of marital quality</t>
+  </si>
+  <si>
+    <t>Journal of Affective Disorders</t>
+  </si>
+  <si>
+    <t>10.1016/j.jad.2020.03.173</t>
+  </si>
+  <si>
+    <t>Reality TV, materialism, and associated consequences: An exploration of the influences of enjoyment and social comparison on reality TV’s cultivation effects</t>
+  </si>
+  <si>
+    <t>Atlantic Journal of Communication</t>
+  </si>
+  <si>
+    <t>10.1080/15456870.2016.1208659</t>
+  </si>
+  <si>
+    <t>The influence of upward social comparison on retail trading behaviour</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-023-49648-3</t>
+  </si>
+  <si>
+    <t>The Effect of WeChat Usage on Upward Social Comparison in Undergraduates</t>
+  </si>
+  <si>
+    <t>Journal of Psychological Research</t>
+  </si>
+  <si>
+    <t>10.30564/jpr.v3i1.2804</t>
+  </si>
+  <si>
+    <t>The impact of self-regulatory states and traits on Facebook use: Priming materialism and social comparisons</t>
+  </si>
+  <si>
+    <t>10.1016/j.chb.2017.01.056</t>
+  </si>
+  <si>
+    <t>Effects of Employees' Social Comparison Behaviors on Distributive Justice Perception and Job Satisfaction</t>
+  </si>
+  <si>
+    <t>10.2224/sbp.2015.43.7.1071</t>
+  </si>
+  <si>
+    <t>Adolescents and social media: The effects of frequency of use, self-presentation, social comparison, and self esteem on possible self imagery</t>
+  </si>
+  <si>
+    <t>Acta Psychologica</t>
+  </si>
+  <si>
+    <t>10.1016/j.actpsy.2022.103629</t>
+  </si>
+  <si>
+    <t>An Exploratory Study of the Relationships between Instagram Use, Emotional- and Behavioral Responses, Self-Esteem, Emotional Investment, and Social Comparison.</t>
+  </si>
+  <si>
+    <t>Passive use of social network site and its relationships with self-esteem and self-concept clarity: A moderated mediation model</t>
+  </si>
+  <si>
+    <t>Keeping up with the Joneses: Social comparison of integrating work and family lives</t>
+  </si>
+  <si>
+    <t>Human Relations</t>
+  </si>
+  <si>
+    <t>10.1177/00187267221094686</t>
+  </si>
+  <si>
+    <t>Materialists on Facebook: the self-regulatory role of social comparisons and the objectification of Facebook friends</t>
+  </si>
+  <si>
+    <t>Heliyon</t>
+  </si>
+  <si>
+    <t>10.1016/j.heliyon.2017.e00449</t>
+  </si>
+  <si>
+    <t>The Mediating Role of Social Comparison in Passive and Active Social Media Use and the Relationship With SelfEsteem and Loneliness in Girls and Boys</t>
+  </si>
+  <si>
+    <t>Online social games: The effect of social comparison elements on continuance behaviour</t>
+  </si>
+  <si>
+    <t>Information &amp; Management</t>
+  </si>
+  <si>
+    <t>10.1016/j.im.2021.103452</t>
+  </si>
+  <si>
+    <t>Self-concept, Social Physique Anxiety, Social Comparison, Shyness, Sociability and Oral Health in Romanian Undergraduates</t>
+  </si>
+  <si>
+    <t>10.1016/j.sbspro.2013.04.335</t>
+  </si>
+  <si>
+    <t>Assessing the effects of gamification in the classroom: A longitudinal study on intrinsic motivation, social comparison, satisfaction, effort, and academic performance</t>
+  </si>
+  <si>
+    <t>Computers &amp; Education</t>
+  </si>
+  <si>
+    <t>10.1016/j.compedu.2014.08.019</t>
+  </si>
+  <si>
+    <t>The Relations between Adolescents’ Social Media Use and Subjective Well-Being: Multiple Mediation Effects of Social Comparison and Self-Esteem</t>
+  </si>
+  <si>
+    <t>Advances in Psychology</t>
+  </si>
+  <si>
+    <t>10.12677/AP.2020.103045</t>
+  </si>
+  <si>
+    <t>Using Social Media for Social Comparison and Feedback-Seeking: Gender and Popularity Moderate Associations with Depressive Symptoms</t>
+  </si>
+  <si>
+    <t>Journal of Abnormal Child Psychology</t>
+  </si>
+  <si>
+    <t>10.1007/s10802-015-0020-0</t>
+  </si>
+  <si>
+    <t>Compared with Him or Her, I Am Not Good Enough: How to Alleviate Depression Due to Upward Social Comparison?</t>
+  </si>
+  <si>
+    <t>The Journal of Psychology</t>
+  </si>
+  <si>
+    <t>10.1080/00223980.2022.2101421</t>
+  </si>
+  <si>
+    <t>Social comparison: The end of a theory and the emergence of a field</t>
+  </si>
+  <si>
+    <t>Organizational Behavior and Human Decision Processes</t>
+  </si>
+  <si>
+    <t>10.1016/j.obhdp.2006.09.007</t>
+  </si>
+  <si>
+    <t>Facebook: Friend or Foe? Exploring the Relationship Between Social Media Use, Social Comparison, Self-Esteem and Affect</t>
+  </si>
+  <si>
+    <t>Social Comparison and Body Image in Teenage Users of the TikTok App</t>
+  </si>
+  <si>
+    <t>Cureus</t>
+  </si>
+  <si>
+    <t>10.7759/cureus.48227</t>
+  </si>
+  <si>
+    <t>How Does Social Comparison Influence Chinese Adolescents’ Flourishing through Short Videos?</t>
+  </si>
+  <si>
+    <t>10.3390/ijerph19138093</t>
+  </si>
+  <si>
+    <t>The Mediation Role of Passive SNS Use between Social Comparison Orientation and Envy</t>
+  </si>
+  <si>
+    <t>10.12677/AP.2017.75085</t>
+  </si>
+  <si>
+    <t>Muhamad</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Gibbons</t>
+  </si>
+  <si>
+    <t>Andraszewicz</t>
+  </si>
+  <si>
+    <t>Hou &amp; Yi</t>
+  </si>
+  <si>
+    <t>Ozimek &amp; Förster</t>
+  </si>
+  <si>
+    <t>Shin &amp; Sohn</t>
+  </si>
+  <si>
+    <t>Mann &amp; Blumberg</t>
+  </si>
+  <si>
+    <t>Haug</t>
+  </si>
+  <si>
+    <t>Qingqi</t>
+  </si>
+  <si>
+    <t>Carlson</t>
+  </si>
+  <si>
+    <t>Jónsdóttir</t>
+  </si>
+  <si>
+    <t>Esteves</t>
+  </si>
+  <si>
+    <t>Roşu</t>
+  </si>
+  <si>
+    <t>Hanus &amp; Fox</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Nesi &amp; Prinstein</t>
+  </si>
+  <si>
+    <t>Weiguo</t>
+  </si>
+  <si>
+    <t>Buunk &amp; Gibbons</t>
+  </si>
+  <si>
+    <t>Gallinari</t>
+  </si>
+  <si>
+    <t>Ibn Auf</t>
+  </si>
+  <si>
+    <t>Guo</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -2006,120 +2456,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:S159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R159" sqref="R159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="14" width="13.42578125" style="6" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="5"/>
+    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="9.42578125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>202</v>
-      </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="H1" t="s">
         <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7"/>
+      <c r="G2" s="3"/>
+      <c r="N2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="9"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>368</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2127,52 +2577,55 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3">
         <v>2014</v>
       </c>
-      <c r="H3" t="s">
-        <v>150</v>
-      </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
         <v>1058</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>-1.61</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>4</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>368</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2180,52 +2633,55 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4">
         <v>2014</v>
       </c>
-      <c r="H4" t="s">
-        <v>150</v>
-      </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>2</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>1058</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>0.25</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>4</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>368</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2233,52 +2689,55 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5">
         <v>2014</v>
       </c>
-      <c r="H5" t="s">
-        <v>150</v>
-      </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
       <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
         <v>1030</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>0.54</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>4</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>368</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2286,52 +2745,55 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6">
         <v>2014</v>
       </c>
-      <c r="H6" t="s">
-        <v>150</v>
-      </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>2</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>1030</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>-0.81</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>4</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>368</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2339,69 +2801,93 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7">
         <v>2015</v>
       </c>
-      <c r="H7" t="s">
-        <v>136</v>
-      </c>
       <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
+      <c r="M7">
+        <v>1</v>
       </c>
       <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
         <v>326</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>-1.24</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>368</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8">
+        <v>2014</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>368</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2409,52 +2895,55 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9">
         <v>2016</v>
       </c>
-      <c r="H9" t="s">
-        <v>137</v>
-      </c>
       <c r="I9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
+      <c r="M9">
+        <v>1</v>
       </c>
       <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
         <v>190</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>-1.87</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>3</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>368</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2462,46 +2951,49 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10">
         <v>2018</v>
       </c>
-      <c r="H10" t="s">
-        <v>185</v>
-      </c>
       <c r="I10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
         <v>331</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>368</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2509,46 +3001,49 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11">
         <v>2018</v>
       </c>
-      <c r="H11" t="s">
-        <v>185</v>
-      </c>
       <c r="I11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
         <v>2</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>331</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>368</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2556,127 +3051,139 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12">
         <v>1999</v>
       </c>
-      <c r="H12" t="s">
-        <v>186</v>
-      </c>
       <c r="I12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
         <v>140</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>368</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2006</v>
       </c>
-      <c r="H13" t="s">
-        <v>139</v>
-      </c>
       <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>368</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2017</v>
       </c>
-      <c r="H14" t="s">
-        <v>140</v>
-      </c>
       <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="B15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>2020</v>
       </c>
-      <c r="H15" t="s">
-        <v>141</v>
-      </c>
       <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>23</v>
       </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>368</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2685,33 +3192,36 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>2022</v>
       </c>
-      <c r="H16" t="s">
-        <v>142</v>
-      </c>
       <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>368</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2719,43 +3229,46 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17">
         <v>2011</v>
       </c>
-      <c r="H17" t="s">
-        <v>150</v>
-      </c>
       <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
         <v>1058</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>368</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2763,113 +3276,122 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18">
         <v>2011</v>
       </c>
-      <c r="H18" t="s">
-        <v>150</v>
-      </c>
       <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
         <v>2</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>1058</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>368</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19">
         <v>2013</v>
       </c>
-      <c r="H19" t="s">
-        <v>145</v>
-      </c>
       <c r="I19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
         <v>29</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>30</v>
       </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>368</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20">
         <v>2022</v>
       </c>
-      <c r="H20" t="s">
-        <v>146</v>
-      </c>
       <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
         <v>32</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>33</v>
       </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>368</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2877,69 +3399,75 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21">
         <v>2019</v>
       </c>
-      <c r="H21" t="s">
-        <v>137</v>
-      </c>
       <c r="I21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
         <v>35</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>36</v>
       </c>
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
+      <c r="M21">
+        <v>1</v>
       </c>
       <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
         <v>596</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="B22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>2002</v>
       </c>
-      <c r="H22" t="s">
-        <v>147</v>
-      </c>
       <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" t="s">
         <v>38</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>39</v>
       </c>
-      <c r="K22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>368</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2947,43 +3475,46 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23">
         <v>2017</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
         <v>41</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>42</v>
       </c>
-      <c r="K23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
+      <c r="M23">
+        <v>1</v>
       </c>
       <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
         <v>363</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>368</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2992,27 +3523,30 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>2015</v>
       </c>
-      <c r="H24" t="s">
-        <v>149</v>
-      </c>
       <c r="I24" t="s">
-        <v>187</v>
-      </c>
-      <c r="K24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>368</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3021,27 +3555,30 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>2020</v>
       </c>
-      <c r="H25" t="s">
-        <v>157</v>
-      </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>368</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3050,132 +3587,144 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>2009</v>
       </c>
-      <c r="H26" t="s">
-        <v>138</v>
-      </c>
       <c r="I26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" t="s">
         <v>45</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>46</v>
       </c>
-      <c r="K26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>368</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>2005</v>
       </c>
-      <c r="H27" t="s">
-        <v>158</v>
-      </c>
       <c r="I27" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" t="s">
         <v>48</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>49</v>
       </c>
-      <c r="K27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>368</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28">
         <v>2008</v>
       </c>
-      <c r="H28" t="s">
-        <v>159</v>
-      </c>
       <c r="I28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" t="s">
         <v>51</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>52</v>
       </c>
-      <c r="K28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>368</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29">
         <v>2005</v>
       </c>
-      <c r="H29" t="s">
-        <v>139</v>
-      </c>
       <c r="I29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s">
         <v>54</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>55</v>
       </c>
-      <c r="K29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
-      <c r="B30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>368</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3184,71 +3733,77 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30">
         <v>2007</v>
       </c>
-      <c r="H30" t="s">
-        <v>160</v>
-      </c>
       <c r="I30" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" t="s">
         <v>57</v>
       </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>368</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31">
         <v>1972</v>
       </c>
-      <c r="H31" t="s">
-        <v>151</v>
-      </c>
       <c r="I31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" t="s">
         <v>59</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>60</v>
       </c>
-      <c r="K31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>368</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3256,364 +3811,394 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32">
         <v>2018</v>
       </c>
-      <c r="H32" t="s">
-        <v>163</v>
-      </c>
       <c r="I32" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" t="s">
         <v>62</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>63</v>
       </c>
-      <c r="K32" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
+      <c r="M32">
+        <v>1</v>
       </c>
       <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
         <v>196</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="R32" s="6">
         <v>5</v>
       </c>
-      <c r="R32" s="5">
+      <c r="S32" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>368</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33">
         <v>2016</v>
       </c>
-      <c r="H33" t="s">
-        <v>152</v>
-      </c>
       <c r="I33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" t="s">
         <v>65</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>66</v>
       </c>
-      <c r="K33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>368</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34">
         <v>2022</v>
       </c>
-      <c r="H34" t="s">
-        <v>164</v>
-      </c>
       <c r="I34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" t="s">
         <v>68</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>69</v>
       </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>368</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35">
         <v>2013</v>
       </c>
-      <c r="H35" t="s">
-        <v>153</v>
-      </c>
       <c r="I35" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" t="s">
         <v>71</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>72</v>
       </c>
-      <c r="K35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>29</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>368</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36">
         <v>2022</v>
       </c>
-      <c r="H36" t="s">
-        <v>154</v>
-      </c>
       <c r="I36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" t="s">
         <v>74</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>75</v>
       </c>
-      <c r="K36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>368</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>204</v>
-      </c>
-      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37">
         <v>2018</v>
       </c>
-      <c r="H37" t="s">
-        <v>168</v>
-      </c>
       <c r="I37" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" t="s">
         <v>77</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>78</v>
       </c>
-      <c r="K37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>31</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>368</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>203</v>
+      </c>
+      <c r="H38">
         <v>2006</v>
       </c>
-      <c r="H38" t="s">
-        <v>169</v>
-      </c>
       <c r="I38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s">
         <v>80</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>81</v>
       </c>
-      <c r="K38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>368</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39">
         <v>2020</v>
       </c>
-      <c r="H39" t="s">
-        <v>170</v>
-      </c>
       <c r="I39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" t="s">
         <v>83</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>84</v>
       </c>
-      <c r="K39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>33</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>368</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40">
         <v>2018</v>
       </c>
-      <c r="H40" t="s">
-        <v>171</v>
-      </c>
       <c r="I40" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" t="s">
         <v>86</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>87</v>
       </c>
-      <c r="K40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>368</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41">
         <v>2016</v>
       </c>
-      <c r="H41" t="s">
-        <v>172</v>
-      </c>
       <c r="I41" t="s">
+        <v>171</v>
+      </c>
+      <c r="J41" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" t="s">
         <v>89</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>90</v>
       </c>
-      <c r="K41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>35</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>368</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3622,135 +4207,147 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>2002</v>
       </c>
-      <c r="H42" t="s">
-        <v>173</v>
-      </c>
       <c r="I42" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" t="s">
         <v>92</v>
       </c>
-      <c r="J42" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>368</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>203</v>
-      </c>
-      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43">
         <v>2018</v>
       </c>
-      <c r="H43" t="s">
-        <v>155</v>
-      </c>
       <c r="I43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" t="s">
         <v>94</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>95</v>
       </c>
-      <c r="K43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>368</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
-        <v>203</v>
-      </c>
-      <c r="G44">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44">
         <v>2010</v>
       </c>
-      <c r="H44" t="s">
-        <v>144</v>
-      </c>
       <c r="I44" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" t="s">
         <v>97</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>98</v>
       </c>
-      <c r="K44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>38</v>
       </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>368</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45">
         <v>2018</v>
       </c>
-      <c r="H45" t="s">
-        <v>165</v>
-      </c>
       <c r="I45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s">
         <v>100</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>101</v>
       </c>
-      <c r="K45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>39</v>
       </c>
-      <c r="B46">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>368</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3761,867 +4358,945 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>2009</v>
       </c>
-      <c r="H46" t="s">
-        <v>174</v>
-      </c>
       <c r="I46" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
         <v>103</v>
       </c>
-      <c r="J46" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>40</v>
       </c>
-      <c r="B47">
-        <v>0</v>
+      <c r="B47" t="s">
+        <v>368</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>203</v>
-      </c>
-      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47">
         <v>2016</v>
       </c>
-      <c r="H47" t="s">
-        <v>175</v>
-      </c>
       <c r="I47" t="s">
+        <v>174</v>
+      </c>
+      <c r="J47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" t="s">
         <v>105</v>
       </c>
-      <c r="J47" t="s">
-        <v>66</v>
-      </c>
-      <c r="K47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41</v>
       </c>
-      <c r="B48">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>368</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>203</v>
-      </c>
-      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48">
         <v>2002</v>
       </c>
-      <c r="H48" t="s">
-        <v>166</v>
-      </c>
       <c r="I48" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" t="s">
         <v>107</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>108</v>
       </c>
-      <c r="K48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="G49">
+      <c r="B49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>2009</v>
       </c>
-      <c r="H49" t="s">
-        <v>176</v>
-      </c>
       <c r="I49" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" t="s">
         <v>110</v>
       </c>
-      <c r="J49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
-      <c r="B50">
-        <v>0</v>
+      <c r="B50" t="s">
+        <v>368</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>203</v>
-      </c>
-      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>202</v>
+      </c>
+      <c r="H50">
         <v>2008</v>
       </c>
-      <c r="H50" t="s">
-        <v>167</v>
-      </c>
       <c r="I50" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" t="s">
         <v>112</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>113</v>
       </c>
-      <c r="K50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44</v>
       </c>
-      <c r="B51">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>368</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51">
         <v>2022</v>
       </c>
-      <c r="H51" t="s">
-        <v>177</v>
-      </c>
       <c r="I51" t="s">
+        <v>176</v>
+      </c>
+      <c r="J51" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" t="s">
         <v>115</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>116</v>
       </c>
-      <c r="K51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>368</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52">
         <v>1996</v>
       </c>
-      <c r="H52" t="s">
-        <v>178</v>
-      </c>
       <c r="I52" t="s">
-        <v>118</v>
-      </c>
-      <c r="K52" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="J52" t="s">
+        <v>117</v>
+      </c>
+      <c r="L52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>46</v>
       </c>
-      <c r="B53">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>368</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53">
         <v>2011</v>
       </c>
-      <c r="H53" t="s">
-        <v>179</v>
-      </c>
       <c r="I53" t="s">
+        <v>178</v>
+      </c>
+      <c r="J53" t="s">
+        <v>118</v>
+      </c>
+      <c r="K53" t="s">
         <v>119</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>120</v>
       </c>
-      <c r="K53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>47</v>
       </c>
-      <c r="B54">
-        <v>0</v>
+      <c r="B54" t="s">
+        <v>368</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54">
         <v>2014</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I54" t="s">
-        <v>122</v>
+      <c r="I54" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="K54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="L54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>48</v>
       </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>368</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>203</v>
-      </c>
-      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H55">
         <v>2006</v>
       </c>
-      <c r="H55" t="s">
-        <v>180</v>
-      </c>
       <c r="I55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" t="s">
         <v>123</v>
       </c>
-      <c r="J55" t="s">
-        <v>55</v>
-      </c>
-      <c r="K55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49</v>
       </c>
-      <c r="B56">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>368</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>203</v>
-      </c>
-      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>202</v>
+      </c>
+      <c r="H56">
         <v>2020</v>
       </c>
-      <c r="H56" t="s">
-        <v>181</v>
-      </c>
       <c r="I56" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56" t="s">
         <v>125</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>126</v>
       </c>
-      <c r="K56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
-      <c r="B57">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>368</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>203</v>
-      </c>
-      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>202</v>
+      </c>
+      <c r="H57">
         <v>2021</v>
       </c>
-      <c r="H57" t="s">
-        <v>138</v>
-      </c>
       <c r="I57" t="s">
+        <v>137</v>
+      </c>
+      <c r="J57" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L57" t="s">
         <v>128</v>
       </c>
-      <c r="J57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>51</v>
       </c>
-      <c r="B58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>368</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>203</v>
+      </c>
+      <c r="H58">
+        <v>2004</v>
+      </c>
+      <c r="I58" t="s">
+        <v>231</v>
+      </c>
+      <c r="J58" t="s">
         <v>204</v>
       </c>
-      <c r="G58">
-        <v>2004</v>
-      </c>
-      <c r="H58" t="s">
-        <v>232</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>205</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>206</v>
       </c>
-      <c r="K58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>52</v>
       </c>
-      <c r="B59">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>368</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>203</v>
-      </c>
-      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>202</v>
+      </c>
+      <c r="H59">
         <v>2004</v>
       </c>
-      <c r="H59" t="s">
-        <v>232</v>
-      </c>
       <c r="I59" t="s">
+        <v>231</v>
+      </c>
+      <c r="J59" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" t="s">
         <v>208</v>
       </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
         <v>209</v>
       </c>
-      <c r="K59" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>53</v>
       </c>
-      <c r="B60">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>368</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>204</v>
-      </c>
-      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60">
         <v>2012</v>
       </c>
-      <c r="H60" t="s">
-        <v>233</v>
-      </c>
       <c r="I60" t="s">
+        <v>232</v>
+      </c>
+      <c r="J60" t="s">
+        <v>210</v>
+      </c>
+      <c r="K60" t="s">
         <v>211</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>212</v>
       </c>
-      <c r="K60" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>54</v>
       </c>
-      <c r="B61">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>368</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61">
         <v>2016</v>
       </c>
-      <c r="H61" t="s">
-        <v>234</v>
-      </c>
       <c r="I61" t="s">
+        <v>233</v>
+      </c>
+      <c r="J61" t="s">
+        <v>213</v>
+      </c>
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" t="s">
         <v>214</v>
       </c>
-      <c r="J61" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>55</v>
       </c>
-      <c r="B62">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>368</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>203</v>
-      </c>
-      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62">
         <v>2021</v>
       </c>
-      <c r="H62" t="s">
-        <v>235</v>
-      </c>
       <c r="I62" t="s">
+        <v>234</v>
+      </c>
+      <c r="J62" t="s">
+        <v>215</v>
+      </c>
+      <c r="K62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" t="s">
         <v>216</v>
       </c>
-      <c r="J62" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>56</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="G63">
+      <c r="B63" t="s">
+        <v>368</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="H63">
         <v>2001</v>
       </c>
-      <c r="H63" t="s">
-        <v>139</v>
-      </c>
       <c r="I63" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" t="s">
+        <v>217</v>
+      </c>
+      <c r="K63" t="s">
         <v>218</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>219</v>
       </c>
-      <c r="K63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>57</v>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>368</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>2015</v>
       </c>
-      <c r="H64" t="s">
-        <v>236</v>
-      </c>
       <c r="I64" t="s">
+        <v>235</v>
+      </c>
+      <c r="J64" t="s">
+        <v>220</v>
+      </c>
+      <c r="K64" t="s">
         <v>221</v>
       </c>
-      <c r="J64" t="s">
+      <c r="L64" t="s">
         <v>222</v>
       </c>
-      <c r="K64" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>58</v>
       </c>
-      <c r="B65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>368</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>203</v>
-      </c>
-      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>202</v>
+      </c>
+      <c r="H65">
         <v>2013</v>
       </c>
-      <c r="H65" t="s">
-        <v>237</v>
-      </c>
       <c r="I65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J65" t="s">
+        <v>223</v>
+      </c>
+      <c r="K65" t="s">
         <v>224</v>
       </c>
-      <c r="J65" t="s">
+      <c r="L65" t="s">
         <v>225</v>
       </c>
-      <c r="K65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>59</v>
       </c>
-      <c r="B66">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>368</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" t="s">
-        <v>203</v>
-      </c>
-      <c r="G66">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>202</v>
+      </c>
+      <c r="H66">
         <v>2009</v>
       </c>
-      <c r="H66" t="s">
-        <v>238</v>
-      </c>
       <c r="I66" t="s">
+        <v>237</v>
+      </c>
+      <c r="J66" t="s">
+        <v>226</v>
+      </c>
+      <c r="K66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" t="s">
         <v>227</v>
       </c>
-      <c r="J66" t="s">
-        <v>46</v>
-      </c>
-      <c r="K66" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>60</v>
       </c>
-      <c r="B67">
-        <v>0</v>
+      <c r="B67" t="s">
+        <v>368</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" t="s">
-        <v>204</v>
-      </c>
-      <c r="G67">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>203</v>
+      </c>
+      <c r="H67">
         <v>2009</v>
       </c>
-      <c r="H67" t="s">
-        <v>239</v>
-      </c>
       <c r="I67" t="s">
+        <v>238</v>
+      </c>
+      <c r="J67" t="s">
+        <v>228</v>
+      </c>
+      <c r="K67" t="s">
         <v>229</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>230</v>
       </c>
-      <c r="K67" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>61</v>
       </c>
-      <c r="B68">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>369</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" t="s">
-        <v>203</v>
-      </c>
-      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68">
         <v>2022</v>
       </c>
-      <c r="H68" t="s">
-        <v>164</v>
-      </c>
       <c r="I68" t="s">
+        <v>163</v>
+      </c>
+      <c r="J68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K68" t="s">
         <v>68</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>69</v>
       </c>
-      <c r="K68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>62</v>
       </c>
-      <c r="B69">
-        <v>0</v>
+      <c r="B69" t="s">
+        <v>369</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>203</v>
-      </c>
-      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>202</v>
+      </c>
+      <c r="H69">
         <v>2019</v>
       </c>
-      <c r="H69" t="s">
-        <v>330</v>
-      </c>
       <c r="I69" t="s">
+        <v>329</v>
+      </c>
+      <c r="J69" t="s">
+        <v>239</v>
+      </c>
+      <c r="K69" t="s">
         <v>240</v>
       </c>
-      <c r="J69" t="s">
+      <c r="L69" t="s">
         <v>241</v>
       </c>
-      <c r="K69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>63</v>
       </c>
-      <c r="B70">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>369</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>203</v>
-      </c>
-      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70">
         <v>2021</v>
       </c>
-      <c r="H70" t="s">
-        <v>331</v>
-      </c>
       <c r="I70" t="s">
+        <v>330</v>
+      </c>
+      <c r="J70" t="s">
+        <v>242</v>
+      </c>
+      <c r="L70" t="s">
         <v>243</v>
       </c>
-      <c r="K70" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>64</v>
       </c>
-      <c r="B71">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>369</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>203</v>
-      </c>
-      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>202</v>
+      </c>
+      <c r="H71">
         <v>2019</v>
       </c>
-      <c r="H71" t="s">
-        <v>332</v>
-      </c>
       <c r="I71" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="J71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>65</v>
       </c>
-      <c r="B72">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>369</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4629,117 +5304,126 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" t="s">
-        <v>203</v>
-      </c>
-      <c r="G72">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>202</v>
+      </c>
+      <c r="H72">
         <v>2022</v>
       </c>
-      <c r="H72" t="s">
-        <v>333</v>
-      </c>
       <c r="I72" t="s">
-        <v>246</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72" s="6">
-        <v>0</v>
+        <v>332</v>
+      </c>
+      <c r="J72" t="s">
+        <v>245</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
       </c>
       <c r="N72" s="6">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
         <v>76</v>
       </c>
-      <c r="O72" s="5">
+      <c r="P72" s="5">
         <v>-1.54</v>
       </c>
-      <c r="Q72" s="6">
+      <c r="R72" s="6">
         <v>3</v>
       </c>
-      <c r="R72" s="5">
+      <c r="S72" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>66</v>
       </c>
-      <c r="B73">
-        <v>0</v>
+      <c r="B73" t="s">
+        <v>369</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>203</v>
-      </c>
-      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73">
         <v>2022</v>
       </c>
-      <c r="H73" t="s">
-        <v>334</v>
-      </c>
       <c r="I73" t="s">
+        <v>333</v>
+      </c>
+      <c r="J73" t="s">
+        <v>246</v>
+      </c>
+      <c r="K73" t="s">
         <v>247</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>248</v>
       </c>
-      <c r="K73" t="s">
-        <v>249</v>
-      </c>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>67</v>
       </c>
-      <c r="B74">
-        <v>0</v>
+      <c r="B74" t="s">
+        <v>369</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" t="s">
-        <v>203</v>
-      </c>
-      <c r="G74">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>202</v>
+      </c>
+      <c r="H74">
         <v>2021</v>
       </c>
-      <c r="H74" t="s">
-        <v>335</v>
-      </c>
       <c r="I74" t="s">
+        <v>334</v>
+      </c>
+      <c r="J74" t="s">
+        <v>249</v>
+      </c>
+      <c r="K74" t="s">
+        <v>221</v>
+      </c>
+      <c r="L74" t="s">
         <v>250</v>
       </c>
-      <c r="J74" t="s">
-        <v>222</v>
-      </c>
-      <c r="K74" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>68</v>
       </c>
-      <c r="B75">
-        <v>0</v>
+      <c r="B75" t="s">
+        <v>369</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4747,388 +5431,424 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" t="s">
-        <v>204</v>
-      </c>
-      <c r="G75">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>203</v>
+      </c>
+      <c r="H75">
         <v>2021</v>
       </c>
-      <c r="H75" t="s">
-        <v>336</v>
-      </c>
       <c r="I75" t="s">
+        <v>335</v>
+      </c>
+      <c r="J75" t="s">
+        <v>251</v>
+      </c>
+      <c r="K75" t="s">
+        <v>221</v>
+      </c>
+      <c r="L75" t="s">
         <v>252</v>
       </c>
-      <c r="J75" t="s">
-        <v>222</v>
-      </c>
-      <c r="K75" t="s">
-        <v>253</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75" s="6">
-        <v>0</v>
+      <c r="M75">
+        <v>1</v>
       </c>
       <c r="N75" s="6">
+        <v>0</v>
+      </c>
+      <c r="O75" s="6">
         <v>793</v>
       </c>
-      <c r="P75" s="5">
+      <c r="Q75" s="5">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>69</v>
       </c>
-      <c r="B76">
-        <v>0</v>
+      <c r="B76" t="s">
+        <v>369</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>203</v>
-      </c>
-      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76">
         <v>2018</v>
       </c>
-      <c r="H76" t="s">
-        <v>337</v>
-      </c>
       <c r="I76" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="J76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>70</v>
       </c>
-      <c r="B77">
-        <v>0</v>
+      <c r="B77" t="s">
+        <v>369</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>203</v>
-      </c>
-      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>202</v>
+      </c>
+      <c r="H77">
         <v>2017</v>
       </c>
-      <c r="H77" t="s">
-        <v>338</v>
-      </c>
       <c r="I77" t="s">
+        <v>337</v>
+      </c>
+      <c r="J77" t="s">
+        <v>254</v>
+      </c>
+      <c r="K77" t="s">
         <v>255</v>
       </c>
-      <c r="J77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>71</v>
       </c>
-      <c r="B78">
-        <v>0</v>
+      <c r="B78" t="s">
+        <v>369</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>203</v>
-      </c>
-      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>202</v>
+      </c>
+      <c r="H78">
         <v>2014</v>
       </c>
-      <c r="H78" t="s">
-        <v>339</v>
-      </c>
       <c r="I78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="J78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>72</v>
       </c>
-      <c r="B79">
-        <v>0</v>
+      <c r="B79" t="s">
+        <v>369</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>367</v>
-      </c>
-      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>366</v>
+      </c>
+      <c r="H79">
         <v>2010</v>
       </c>
-      <c r="H79" t="s">
-        <v>340</v>
-      </c>
       <c r="I79" t="s">
+        <v>339</v>
+      </c>
+      <c r="J79" t="s">
+        <v>257</v>
+      </c>
+      <c r="K79" t="s">
         <v>258</v>
       </c>
-      <c r="J79" t="s">
+      <c r="L79" t="s">
         <v>259</v>
       </c>
-      <c r="K79" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>73</v>
       </c>
-      <c r="B80">
-        <v>0</v>
+      <c r="B80" t="s">
+        <v>369</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>204</v>
-      </c>
-      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80">
         <v>2018</v>
       </c>
-      <c r="H80" t="s">
-        <v>341</v>
-      </c>
       <c r="I80" t="s">
+        <v>340</v>
+      </c>
+      <c r="J80" t="s">
+        <v>260</v>
+      </c>
+      <c r="K80" t="s">
         <v>261</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
         <v>262</v>
       </c>
-      <c r="K80" t="s">
-        <v>263</v>
-      </c>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>74</v>
       </c>
-      <c r="B81">
-        <v>0</v>
+      <c r="B81" t="s">
+        <v>369</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>204</v>
-      </c>
-      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>203</v>
+      </c>
+      <c r="H81">
         <v>2023</v>
       </c>
-      <c r="H81" t="s">
-        <v>342</v>
-      </c>
       <c r="I81" t="s">
+        <v>341</v>
+      </c>
+      <c r="J81" t="s">
+        <v>263</v>
+      </c>
+      <c r="K81" t="s">
         <v>264</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
         <v>265</v>
       </c>
-      <c r="K81" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>75</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="G82">
+      <c r="B82" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="H82">
         <v>2023</v>
       </c>
-      <c r="H82" t="s">
-        <v>343</v>
-      </c>
       <c r="I82" t="s">
+        <v>342</v>
+      </c>
+      <c r="J82" t="s">
+        <v>266</v>
+      </c>
+      <c r="K82" t="s">
         <v>267</v>
       </c>
-      <c r="J82" t="s">
+      <c r="L82" t="s">
         <v>268</v>
       </c>
-      <c r="K82" t="s">
-        <v>269</v>
-      </c>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>76</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="G83">
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="H83">
         <v>2021</v>
       </c>
-      <c r="H83" t="s">
-        <v>344</v>
-      </c>
       <c r="I83" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>77</v>
       </c>
-      <c r="B84">
-        <v>0</v>
+      <c r="B84" t="s">
+        <v>369</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84" t="s">
-        <v>203</v>
-      </c>
-      <c r="G84">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>202</v>
+      </c>
+      <c r="H84">
         <v>2020</v>
       </c>
-      <c r="H84" t="s">
-        <v>345</v>
-      </c>
       <c r="I84" t="s">
+        <v>344</v>
+      </c>
+      <c r="J84" t="s">
+        <v>270</v>
+      </c>
+      <c r="K84" t="s">
         <v>271</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>272</v>
       </c>
-      <c r="K84" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>78</v>
       </c>
-      <c r="B85">
-        <v>0</v>
+      <c r="B85" t="s">
+        <v>369</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85" t="s">
-        <v>203</v>
-      </c>
-      <c r="G85">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>202</v>
+      </c>
+      <c r="H85">
         <v>2017</v>
       </c>
-      <c r="H85" t="s">
-        <v>346</v>
-      </c>
       <c r="I85" t="s">
+        <v>345</v>
+      </c>
+      <c r="J85" t="s">
+        <v>273</v>
+      </c>
+      <c r="K85" t="s">
         <v>274</v>
       </c>
-      <c r="J85" t="s">
+      <c r="L85" t="s">
         <v>275</v>
       </c>
-      <c r="K85" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>79</v>
       </c>
-      <c r="B86">
-        <v>0</v>
+      <c r="B86" t="s">
+        <v>369</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" t="s">
-        <v>203</v>
-      </c>
-      <c r="G86">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>202</v>
+      </c>
+      <c r="H86">
         <v>2023</v>
       </c>
-      <c r="H86" t="s">
-        <v>347</v>
-      </c>
       <c r="I86" t="s">
+        <v>346</v>
+      </c>
+      <c r="J86" t="s">
+        <v>276</v>
+      </c>
+      <c r="K86" t="s">
         <v>277</v>
       </c>
-      <c r="J86" t="s">
+      <c r="L86" t="s">
         <v>278</v>
       </c>
-      <c r="K86" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>80</v>
       </c>
-      <c r="B87">
-        <v>0</v>
+      <c r="B87" t="s">
+        <v>369</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5136,423 +5856,2726 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" t="s">
-        <v>204</v>
-      </c>
-      <c r="G87">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>203</v>
+      </c>
+      <c r="H87">
         <v>2016</v>
       </c>
-      <c r="H87" t="s">
-        <v>348</v>
-      </c>
       <c r="I87" t="s">
+        <v>347</v>
+      </c>
+      <c r="J87" t="s">
+        <v>279</v>
+      </c>
+      <c r="K87" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" t="s">
         <v>280</v>
       </c>
-      <c r="J87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" t="s">
-        <v>281</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87" s="6">
-        <v>0</v>
+      <c r="M87">
+        <v>1</v>
       </c>
       <c r="N87" s="6">
+        <v>0</v>
+      </c>
+      <c r="O87" s="6">
         <v>315</v>
       </c>
-      <c r="P87" s="5">
+      <c r="Q87" s="5">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>81</v>
       </c>
-      <c r="G88">
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>202</v>
+      </c>
+      <c r="H88">
         <v>2005</v>
       </c>
-      <c r="H88" t="s">
-        <v>349</v>
-      </c>
       <c r="I88" t="s">
+        <v>348</v>
+      </c>
+      <c r="J88" t="s">
+        <v>281</v>
+      </c>
+      <c r="K88" t="s">
         <v>282</v>
       </c>
-      <c r="J88" t="s">
+      <c r="L88" t="s">
         <v>283</v>
       </c>
-      <c r="K88" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>82</v>
       </c>
-      <c r="G89">
+      <c r="B89" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>2014</v>
       </c>
-      <c r="H89" t="s">
-        <v>350</v>
-      </c>
       <c r="I89" t="s">
+        <v>349</v>
+      </c>
+      <c r="J89" t="s">
+        <v>284</v>
+      </c>
+      <c r="K89" t="s">
         <v>285</v>
       </c>
-      <c r="J89" t="s">
+      <c r="L89" t="s">
         <v>286</v>
       </c>
-      <c r="K89" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>83</v>
       </c>
-      <c r="G90">
+      <c r="B90" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="H90">
         <v>2013</v>
       </c>
-      <c r="H90" t="s">
-        <v>351</v>
-      </c>
       <c r="I90" t="s">
+        <v>350</v>
+      </c>
+      <c r="J90" t="s">
+        <v>287</v>
+      </c>
+      <c r="K90" t="s">
+        <v>97</v>
+      </c>
+      <c r="L90" t="s">
         <v>288</v>
       </c>
-      <c r="J90" t="s">
-        <v>98</v>
-      </c>
-      <c r="K90" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>84</v>
       </c>
-      <c r="G91">
+      <c r="B91" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>202</v>
+      </c>
+      <c r="H91">
         <v>2014</v>
       </c>
-      <c r="H91" t="s">
-        <v>352</v>
-      </c>
       <c r="I91" t="s">
+        <v>351</v>
+      </c>
+      <c r="J91" t="s">
+        <v>289</v>
+      </c>
+      <c r="K91" t="s">
         <v>290</v>
       </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
         <v>291</v>
       </c>
-      <c r="K91" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>85</v>
       </c>
-      <c r="G92">
+      <c r="B92" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92">
         <v>2014</v>
       </c>
-      <c r="H92" t="s">
-        <v>353</v>
-      </c>
       <c r="I92" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="J92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>86</v>
       </c>
-      <c r="G93">
+      <c r="B93" t="s">
+        <v>369</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93">
         <v>2018</v>
       </c>
-      <c r="H93" t="s">
-        <v>354</v>
-      </c>
       <c r="I93" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="J93" t="s">
+        <v>293</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" s="6">
+        <v>0</v>
+      </c>
+      <c r="O93" s="6">
+        <v>97</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>87</v>
       </c>
-      <c r="G94">
+      <c r="B94" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94">
         <v>2009</v>
       </c>
-      <c r="H94" t="s">
-        <v>355</v>
-      </c>
       <c r="I94" t="s">
+        <v>354</v>
+      </c>
+      <c r="J94" t="s">
+        <v>294</v>
+      </c>
+      <c r="K94" t="s">
         <v>295</v>
       </c>
-      <c r="J94" t="s">
+      <c r="L94" t="s">
         <v>296</v>
       </c>
-      <c r="K94" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>88</v>
       </c>
-      <c r="G95">
+      <c r="B95" t="s">
+        <v>369</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95">
         <v>2021</v>
       </c>
-      <c r="H95" t="s">
-        <v>356</v>
-      </c>
       <c r="I95" t="s">
+        <v>355</v>
+      </c>
+      <c r="J95" t="s">
+        <v>297</v>
+      </c>
+      <c r="K95" t="s">
+        <v>29</v>
+      </c>
+      <c r="L95" t="s">
         <v>298</v>
       </c>
-      <c r="J95" t="s">
-        <v>30</v>
-      </c>
-      <c r="K95" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>89</v>
       </c>
-      <c r="G96">
+      <c r="B96" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>203</v>
+      </c>
+      <c r="H96">
         <v>2002</v>
       </c>
-      <c r="H96" t="s">
-        <v>357</v>
-      </c>
       <c r="I96" t="s">
+        <v>356</v>
+      </c>
+      <c r="J96" t="s">
+        <v>299</v>
+      </c>
+      <c r="K96" t="s">
+        <v>13</v>
+      </c>
+      <c r="L96" t="s">
         <v>300</v>
       </c>
-      <c r="J96" t="s">
-        <v>14</v>
-      </c>
-      <c r="K96" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0</v>
+      </c>
+      <c r="O96" s="6">
+        <v>131</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>90</v>
       </c>
-      <c r="G97">
+      <c r="B97" t="s">
+        <v>369</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>203</v>
+      </c>
+      <c r="H97">
         <v>2002</v>
       </c>
-      <c r="H97" t="s">
-        <v>175</v>
-      </c>
       <c r="I97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J97" t="s">
+        <v>301</v>
+      </c>
+      <c r="K97" t="s">
         <v>302</v>
       </c>
-      <c r="J97" t="s">
+      <c r="L97" t="s">
         <v>303</v>
       </c>
-      <c r="K97" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>91</v>
       </c>
-      <c r="G98">
+      <c r="B98" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>203</v>
+      </c>
+      <c r="H98">
         <v>2018</v>
       </c>
-      <c r="H98" t="s">
-        <v>358</v>
-      </c>
       <c r="I98" t="s">
+        <v>357</v>
+      </c>
+      <c r="J98" t="s">
+        <v>304</v>
+      </c>
+      <c r="K98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" t="s">
         <v>305</v>
       </c>
-      <c r="J98" t="s">
-        <v>20</v>
-      </c>
-      <c r="K98" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>92</v>
       </c>
-      <c r="G99">
+      <c r="B99" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>202</v>
+      </c>
+      <c r="H99">
         <v>2019</v>
       </c>
-      <c r="H99" t="s">
-        <v>359</v>
-      </c>
       <c r="I99" t="s">
+        <v>358</v>
+      </c>
+      <c r="J99" t="s">
+        <v>306</v>
+      </c>
+      <c r="K99" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" t="s">
         <v>307</v>
       </c>
-      <c r="J99" t="s">
-        <v>69</v>
-      </c>
-      <c r="K99" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>93</v>
       </c>
-      <c r="G100">
+      <c r="B100" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>203</v>
+      </c>
+      <c r="H100">
         <v>2017</v>
       </c>
-      <c r="H100" t="s">
-        <v>360</v>
-      </c>
       <c r="I100" t="s">
+        <v>359</v>
+      </c>
+      <c r="J100" t="s">
+        <v>308</v>
+      </c>
+      <c r="K100" t="s">
         <v>309</v>
       </c>
-      <c r="J100" t="s">
+      <c r="L100" t="s">
         <v>310</v>
       </c>
-      <c r="K100" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>94</v>
       </c>
-      <c r="G101">
+      <c r="B101" t="s">
+        <v>369</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>202</v>
+      </c>
+      <c r="H101">
         <v>2023</v>
       </c>
-      <c r="H101" t="s">
-        <v>361</v>
-      </c>
       <c r="I101" t="s">
+        <v>360</v>
+      </c>
+      <c r="J101" t="s">
+        <v>311</v>
+      </c>
+      <c r="K101" t="s">
         <v>312</v>
       </c>
-      <c r="J101" t="s">
+      <c r="L101" t="s">
         <v>313</v>
       </c>
-      <c r="K101" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>95</v>
       </c>
-      <c r="G102">
+      <c r="B102" t="s">
+        <v>369</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>203</v>
+      </c>
+      <c r="H102">
         <v>2021</v>
       </c>
-      <c r="H102" t="s">
-        <v>362</v>
-      </c>
       <c r="I102" t="s">
+        <v>361</v>
+      </c>
+      <c r="J102" t="s">
+        <v>314</v>
+      </c>
+      <c r="K102" t="s">
         <v>315</v>
       </c>
-      <c r="J102" t="s">
+      <c r="L102" t="s">
         <v>316</v>
       </c>
-      <c r="K102" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>96</v>
       </c>
-      <c r="G103">
+      <c r="B103" t="s">
+        <v>369</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>203</v>
+      </c>
+      <c r="H103">
         <v>2017</v>
       </c>
-      <c r="H103" t="s">
-        <v>363</v>
-      </c>
       <c r="I103" t="s">
+        <v>362</v>
+      </c>
+      <c r="J103" t="s">
+        <v>317</v>
+      </c>
+      <c r="K103" t="s">
         <v>318</v>
       </c>
-      <c r="J103" t="s">
+      <c r="L103" t="s">
         <v>319</v>
       </c>
-      <c r="K103" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>97</v>
       </c>
-      <c r="G104">
+      <c r="B104" t="s">
+        <v>369</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>203</v>
+      </c>
+      <c r="H104">
         <v>2022</v>
       </c>
-      <c r="H104" t="s">
-        <v>364</v>
-      </c>
       <c r="I104" t="s">
+        <v>363</v>
+      </c>
+      <c r="J104" t="s">
+        <v>320</v>
+      </c>
+      <c r="K104" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" t="s">
         <v>321</v>
       </c>
-      <c r="J104" t="s">
-        <v>33</v>
-      </c>
-      <c r="K104" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104" s="6">
+        <v>0</v>
+      </c>
+      <c r="O104" s="6">
+        <v>355</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>98</v>
       </c>
-      <c r="G105">
+      <c r="B105" t="s">
+        <v>369</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>203</v>
+      </c>
+      <c r="H105">
         <v>2016</v>
       </c>
-      <c r="H105" t="s">
-        <v>365</v>
-      </c>
       <c r="I105" t="s">
+        <v>364</v>
+      </c>
+      <c r="J105" t="s">
+        <v>322</v>
+      </c>
+      <c r="K105" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" t="s">
         <v>323</v>
       </c>
-      <c r="J105" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>99</v>
       </c>
-      <c r="G106">
+      <c r="B106" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>203</v>
+      </c>
+      <c r="H106">
         <v>2015</v>
       </c>
-      <c r="H106" t="s">
-        <v>366</v>
-      </c>
       <c r="I106" t="s">
+        <v>365</v>
+      </c>
+      <c r="J106" t="s">
+        <v>324</v>
+      </c>
+      <c r="K106" t="s">
+        <v>107</v>
+      </c>
+      <c r="L106" t="s">
         <v>325</v>
       </c>
-      <c r="J106" t="s">
-        <v>108</v>
-      </c>
-      <c r="K106" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>100</v>
       </c>
-      <c r="G107">
+      <c r="B107" t="s">
+        <v>369</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>203</v>
+      </c>
+      <c r="H107">
         <v>2023</v>
       </c>
-      <c r="H107" t="s">
-        <v>364</v>
-      </c>
       <c r="I107" t="s">
+        <v>363</v>
+      </c>
+      <c r="J107" t="s">
+        <v>326</v>
+      </c>
+      <c r="K107" t="s">
         <v>327</v>
       </c>
-      <c r="J107" t="s">
+      <c r="L107" t="s">
         <v>328</v>
       </c>
-      <c r="K107" t="s">
-        <v>329</v>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>369</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>203</v>
+      </c>
+      <c r="H108">
+        <v>2015</v>
+      </c>
+      <c r="I108" t="s">
+        <v>417</v>
+      </c>
+      <c r="J108" t="s">
+        <v>370</v>
+      </c>
+      <c r="K108" t="s">
+        <v>221</v>
+      </c>
+      <c r="L108" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>102</v>
+      </c>
+      <c r="B109" t="s">
+        <v>369</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2021</v>
+      </c>
+      <c r="I109" t="s">
+        <v>418</v>
+      </c>
+      <c r="J109" t="s">
+        <v>372</v>
+      </c>
+      <c r="K109" t="s">
+        <v>373</v>
+      </c>
+      <c r="L109" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>103</v>
+      </c>
+      <c r="B110" t="s">
+        <v>369</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>202</v>
+      </c>
+      <c r="H110">
+        <v>2022</v>
+      </c>
+      <c r="I110" t="s">
+        <v>419</v>
+      </c>
+      <c r="J110" t="s">
+        <v>375</v>
+      </c>
+      <c r="K110" t="s">
+        <v>376</v>
+      </c>
+      <c r="L110" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>104</v>
+      </c>
+      <c r="B111" t="s">
+        <v>369</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>203</v>
+      </c>
+      <c r="H111">
+        <v>2021</v>
+      </c>
+      <c r="I111" t="s">
+        <v>420</v>
+      </c>
+      <c r="J111" t="s">
+        <v>378</v>
+      </c>
+      <c r="K111" t="s">
+        <v>379</v>
+      </c>
+      <c r="L111" t="s">
+        <v>380</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" s="6">
+        <v>0</v>
+      </c>
+      <c r="O111" s="6">
+        <v>163</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>105</v>
+      </c>
+      <c r="B112" t="s">
+        <v>369</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>203</v>
+      </c>
+      <c r="H112">
+        <v>2023</v>
+      </c>
+      <c r="I112" t="s">
+        <v>421</v>
+      </c>
+      <c r="J112" t="s">
+        <v>381</v>
+      </c>
+      <c r="K112" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>106</v>
+      </c>
+      <c r="B113" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>203</v>
+      </c>
+      <c r="H113">
+        <v>2022</v>
+      </c>
+      <c r="I113" t="s">
+        <v>422</v>
+      </c>
+      <c r="J113" t="s">
+        <v>383</v>
+      </c>
+      <c r="K113" t="s">
+        <v>384</v>
+      </c>
+      <c r="L113" t="s">
+        <v>385</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113" s="6">
+        <v>0</v>
+      </c>
+      <c r="O113" s="6">
+        <v>4804</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>107</v>
+      </c>
+      <c r="B114" t="s">
+        <v>369</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>202</v>
+      </c>
+      <c r="H114">
+        <v>2019</v>
+      </c>
+      <c r="I114" t="s">
+        <v>423</v>
+      </c>
+      <c r="J114" t="s">
+        <v>386</v>
+      </c>
+      <c r="K114" t="s">
+        <v>387</v>
+      </c>
+      <c r="L114" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>108</v>
+      </c>
+      <c r="B115" t="s">
+        <v>369</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>203</v>
+      </c>
+      <c r="H115">
+        <v>2013</v>
+      </c>
+      <c r="I115" t="s">
+        <v>362</v>
+      </c>
+      <c r="J115" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>109</v>
+      </c>
+      <c r="B116" t="s">
+        <v>369</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>202</v>
+      </c>
+      <c r="H116">
+        <v>2018</v>
+      </c>
+      <c r="I116" t="s">
+        <v>424</v>
+      </c>
+      <c r="J116" t="s">
+        <v>390</v>
+      </c>
+      <c r="K116" t="s">
+        <v>391</v>
+      </c>
+      <c r="L116" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>110</v>
+      </c>
+      <c r="B117" t="s">
+        <v>369</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>2023</v>
+      </c>
+      <c r="I117" t="s">
+        <v>425</v>
+      </c>
+      <c r="J117" t="s">
+        <v>393</v>
+      </c>
+      <c r="K117" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>111</v>
+      </c>
+      <c r="B118" t="s">
+        <v>369</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>202</v>
+      </c>
+      <c r="H118">
+        <v>2022</v>
+      </c>
+      <c r="I118" t="s">
+        <v>426</v>
+      </c>
+      <c r="J118" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>112</v>
+      </c>
+      <c r="B119" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>202</v>
+      </c>
+      <c r="H119">
+        <v>2014</v>
+      </c>
+      <c r="I119" t="s">
+        <v>427</v>
+      </c>
+      <c r="J119" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>113</v>
+      </c>
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>202</v>
+      </c>
+      <c r="H120">
+        <v>2020</v>
+      </c>
+      <c r="I120" t="s">
+        <v>428</v>
+      </c>
+      <c r="J120" t="s">
+        <v>397</v>
+      </c>
+      <c r="K120" t="s">
+        <v>107</v>
+      </c>
+      <c r="L120" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>114</v>
+      </c>
+      <c r="B121" t="s">
+        <v>369</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>203</v>
+      </c>
+      <c r="H121">
+        <v>2023</v>
+      </c>
+      <c r="I121" t="s">
+        <v>363</v>
+      </c>
+      <c r="J121" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>115</v>
+      </c>
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>203</v>
+      </c>
+      <c r="H122">
+        <v>2023</v>
+      </c>
+      <c r="I122" t="s">
+        <v>429</v>
+      </c>
+      <c r="J122" t="s">
+        <v>400</v>
+      </c>
+      <c r="K122" t="s">
+        <v>19</v>
+      </c>
+      <c r="L122" t="s">
+        <v>401</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122" s="6">
+        <v>0</v>
+      </c>
+      <c r="O122" s="6">
+        <v>296</v>
+      </c>
+      <c r="Q122" s="5">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>115</v>
+      </c>
+      <c r="B123" t="s">
+        <v>369</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>203</v>
+      </c>
+      <c r="H123">
+        <v>2023</v>
+      </c>
+      <c r="I123" t="s">
+        <v>429</v>
+      </c>
+      <c r="J123" t="s">
+        <v>400</v>
+      </c>
+      <c r="K123" t="s">
+        <v>19</v>
+      </c>
+      <c r="L123" t="s">
+        <v>401</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123" s="6">
+        <v>1</v>
+      </c>
+      <c r="O123" s="6">
+        <v>296</v>
+      </c>
+      <c r="Q123" s="5">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>115</v>
+      </c>
+      <c r="B124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>203</v>
+      </c>
+      <c r="H124">
+        <v>2023</v>
+      </c>
+      <c r="I124" t="s">
+        <v>429</v>
+      </c>
+      <c r="J124" t="s">
+        <v>400</v>
+      </c>
+      <c r="K124" t="s">
+        <v>19</v>
+      </c>
+      <c r="L124" t="s">
+        <v>401</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124" s="6">
+        <v>2</v>
+      </c>
+      <c r="O124" s="6">
+        <v>296</v>
+      </c>
+      <c r="Q124" s="5">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>116</v>
+      </c>
+      <c r="B125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>202</v>
+      </c>
+      <c r="H125">
+        <v>2000</v>
+      </c>
+      <c r="I125" t="s">
+        <v>420</v>
+      </c>
+      <c r="J125" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>117</v>
+      </c>
+      <c r="B126" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>2017</v>
+      </c>
+      <c r="I126" t="s">
+        <v>430</v>
+      </c>
+      <c r="J126" t="s">
+        <v>403</v>
+      </c>
+      <c r="K126" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>369</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>202</v>
+      </c>
+      <c r="H127">
+        <v>2019</v>
+      </c>
+      <c r="I127" t="s">
+        <v>431</v>
+      </c>
+      <c r="J127" t="s">
+        <v>405</v>
+      </c>
+      <c r="K127" t="s">
+        <v>406</v>
+      </c>
+      <c r="L127" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>119</v>
+      </c>
+      <c r="B128" t="s">
+        <v>369</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>2023</v>
+      </c>
+      <c r="I128" t="s">
+        <v>432</v>
+      </c>
+      <c r="J128" t="s">
+        <v>408</v>
+      </c>
+      <c r="K128" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>120</v>
+      </c>
+      <c r="B129" t="s">
+        <v>369</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>2023</v>
+      </c>
+      <c r="I129" t="s">
+        <v>433</v>
+      </c>
+      <c r="J129" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>121</v>
+      </c>
+      <c r="B130" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>2020</v>
+      </c>
+      <c r="I130" t="s">
+        <v>138</v>
+      </c>
+      <c r="J130" t="s">
+        <v>411</v>
+      </c>
+      <c r="K130" t="s">
+        <v>412</v>
+      </c>
+      <c r="L130" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>122</v>
+      </c>
+      <c r="B131" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>203</v>
+      </c>
+      <c r="H131">
+        <v>2023</v>
+      </c>
+      <c r="I131" t="s">
+        <v>434</v>
+      </c>
+      <c r="J131" t="s">
+        <v>414</v>
+      </c>
+      <c r="K131" t="s">
+        <v>415</v>
+      </c>
+      <c r="L131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>123</v>
+      </c>
+      <c r="B132" t="s">
+        <v>369</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>203</v>
+      </c>
+      <c r="H132">
+        <v>2005</v>
+      </c>
+      <c r="I132" t="s">
+        <v>138</v>
+      </c>
+      <c r="J132" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>124</v>
+      </c>
+      <c r="B133" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>203</v>
+      </c>
+      <c r="H133">
+        <v>2022</v>
+      </c>
+      <c r="I133" t="s">
+        <v>495</v>
+      </c>
+      <c r="J133" t="s">
+        <v>436</v>
+      </c>
+      <c r="K133" t="s">
+        <v>437</v>
+      </c>
+      <c r="L133" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>125</v>
+      </c>
+      <c r="B134" t="s">
+        <v>369</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>202</v>
+      </c>
+      <c r="H134">
+        <v>2020</v>
+      </c>
+      <c r="I134" t="s">
+        <v>496</v>
+      </c>
+      <c r="J134" t="s">
+        <v>439</v>
+      </c>
+      <c r="K134" t="s">
+        <v>440</v>
+      </c>
+      <c r="L134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>126</v>
+      </c>
+      <c r="B135" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>203</v>
+      </c>
+      <c r="H135">
+        <v>2016</v>
+      </c>
+      <c r="I135" t="s">
+        <v>145</v>
+      </c>
+      <c r="J135" t="s">
+        <v>442</v>
+      </c>
+      <c r="K135" t="s">
+        <v>443</v>
+      </c>
+      <c r="L135" t="s">
+        <v>444</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135" s="6">
+        <v>0</v>
+      </c>
+      <c r="O135" s="6">
+        <v>202</v>
+      </c>
+      <c r="Q135" s="5">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>127</v>
+      </c>
+      <c r="B136" t="s">
+        <v>369</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>203</v>
+      </c>
+      <c r="H136">
+        <v>2022</v>
+      </c>
+      <c r="I136" t="s">
+        <v>497</v>
+      </c>
+      <c r="J136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>128</v>
+      </c>
+      <c r="B137" t="s">
+        <v>369</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>2023</v>
+      </c>
+      <c r="I137" t="s">
+        <v>498</v>
+      </c>
+      <c r="J137" t="s">
+        <v>445</v>
+      </c>
+      <c r="K137" t="s">
+        <v>446</v>
+      </c>
+      <c r="L137" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>129</v>
+      </c>
+      <c r="B138" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>202</v>
+      </c>
+      <c r="H138">
+        <v>2021</v>
+      </c>
+      <c r="I138" t="s">
+        <v>499</v>
+      </c>
+      <c r="J138" t="s">
+        <v>448</v>
+      </c>
+      <c r="K138" t="s">
+        <v>449</v>
+      </c>
+      <c r="L138" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>130</v>
+      </c>
+      <c r="B139" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>517</v>
+      </c>
+      <c r="H139">
+        <v>2017</v>
+      </c>
+      <c r="I139" t="s">
+        <v>500</v>
+      </c>
+      <c r="J139" t="s">
+        <v>451</v>
+      </c>
+      <c r="K139" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>131</v>
+      </c>
+      <c r="B140" t="s">
+        <v>369</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>202</v>
+      </c>
+      <c r="H140">
+        <v>2015</v>
+      </c>
+      <c r="I140" t="s">
+        <v>501</v>
+      </c>
+      <c r="J140" t="s">
+        <v>453</v>
+      </c>
+      <c r="K140" t="s">
+        <v>107</v>
+      </c>
+      <c r="L140" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>132</v>
+      </c>
+      <c r="B141" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>203</v>
+      </c>
+      <c r="H141">
+        <v>2022</v>
+      </c>
+      <c r="I141" t="s">
+        <v>502</v>
+      </c>
+      <c r="J141" t="s">
+        <v>455</v>
+      </c>
+      <c r="K141" t="s">
+        <v>456</v>
+      </c>
+      <c r="L141" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>133</v>
+      </c>
+      <c r="B142" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>203</v>
+      </c>
+      <c r="H142">
+        <v>2020</v>
+      </c>
+      <c r="I142" t="s">
+        <v>503</v>
+      </c>
+      <c r="J142" t="s">
+        <v>458</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142" s="6">
+        <v>0</v>
+      </c>
+      <c r="O142" s="6">
+        <v>315</v>
+      </c>
+      <c r="Q142" s="5">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>134</v>
+      </c>
+      <c r="B143" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>202</v>
+      </c>
+      <c r="H143">
+        <v>2017</v>
+      </c>
+      <c r="I143" t="s">
+        <v>504</v>
+      </c>
+      <c r="J143" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>135</v>
+      </c>
+      <c r="B144" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>203</v>
+      </c>
+      <c r="H144">
+        <v>2023</v>
+      </c>
+      <c r="I144" t="s">
+        <v>505</v>
+      </c>
+      <c r="J144" t="s">
+        <v>460</v>
+      </c>
+      <c r="K144" t="s">
+        <v>461</v>
+      </c>
+      <c r="L144" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>136</v>
+      </c>
+      <c r="B145" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>203</v>
+      </c>
+      <c r="H145">
+        <v>2017</v>
+      </c>
+      <c r="I145" t="s">
+        <v>363</v>
+      </c>
+      <c r="J145" t="s">
+        <v>463</v>
+      </c>
+      <c r="K145" t="s">
+        <v>464</v>
+      </c>
+      <c r="L145" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>137</v>
+      </c>
+      <c r="B146" t="s">
+        <v>369</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>203</v>
+      </c>
+      <c r="H146">
+        <v>2021</v>
+      </c>
+      <c r="I146" t="s">
+        <v>506</v>
+      </c>
+      <c r="J146" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>138</v>
+      </c>
+      <c r="B147" t="s">
+        <v>369</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>203</v>
+      </c>
+      <c r="H147">
+        <v>2021</v>
+      </c>
+      <c r="I147" t="s">
+        <v>507</v>
+      </c>
+      <c r="J147" t="s">
+        <v>467</v>
+      </c>
+      <c r="K147" t="s">
+        <v>468</v>
+      </c>
+      <c r="L147" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>139</v>
+      </c>
+      <c r="B148" t="s">
+        <v>369</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>202</v>
+      </c>
+      <c r="H148">
+        <v>2013</v>
+      </c>
+      <c r="I148" t="s">
+        <v>508</v>
+      </c>
+      <c r="J148" t="s">
+        <v>470</v>
+      </c>
+      <c r="K148" t="s">
+        <v>4</v>
+      </c>
+      <c r="L148" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>140</v>
+      </c>
+      <c r="B149" t="s">
+        <v>369</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>203</v>
+      </c>
+      <c r="H149">
+        <v>2015</v>
+      </c>
+      <c r="I149" t="s">
+        <v>509</v>
+      </c>
+      <c r="J149" t="s">
+        <v>472</v>
+      </c>
+      <c r="K149" t="s">
+        <v>473</v>
+      </c>
+      <c r="L149" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>141</v>
+      </c>
+      <c r="B150" t="s">
+        <v>369</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>203</v>
+      </c>
+      <c r="H150">
+        <v>2020</v>
+      </c>
+      <c r="I150" t="s">
+        <v>510</v>
+      </c>
+      <c r="J150" t="s">
+        <v>475</v>
+      </c>
+      <c r="K150" t="s">
+        <v>476</v>
+      </c>
+      <c r="L150" t="s">
+        <v>477</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150" s="6">
+        <v>0</v>
+      </c>
+      <c r="O150" s="6">
+        <v>709</v>
+      </c>
+      <c r="Q150" s="5">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>142</v>
+      </c>
+      <c r="B151" t="s">
+        <v>369</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>202</v>
+      </c>
+      <c r="H151">
+        <v>2019</v>
+      </c>
+      <c r="I151" t="s">
+        <v>358</v>
+      </c>
+      <c r="J151" t="s">
+        <v>306</v>
+      </c>
+      <c r="K151" t="s">
+        <v>68</v>
+      </c>
+      <c r="L151" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>143</v>
+      </c>
+      <c r="B152" t="s">
+        <v>369</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>203</v>
+      </c>
+      <c r="H152">
+        <v>2015</v>
+      </c>
+      <c r="I152" t="s">
+        <v>511</v>
+      </c>
+      <c r="J152" t="s">
+        <v>478</v>
+      </c>
+      <c r="K152" t="s">
+        <v>479</v>
+      </c>
+      <c r="L152" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>144</v>
+      </c>
+      <c r="B153" t="s">
+        <v>369</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>203</v>
+      </c>
+      <c r="H153">
+        <v>2022</v>
+      </c>
+      <c r="I153" t="s">
+        <v>512</v>
+      </c>
+      <c r="J153" t="s">
+        <v>481</v>
+      </c>
+      <c r="K153" t="s">
+        <v>482</v>
+      </c>
+      <c r="L153" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>145</v>
+      </c>
+      <c r="B154" t="s">
+        <v>369</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>2007</v>
+      </c>
+      <c r="I154" t="s">
+        <v>513</v>
+      </c>
+      <c r="J154" t="s">
+        <v>484</v>
+      </c>
+      <c r="K154" t="s">
+        <v>485</v>
+      </c>
+      <c r="L154" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>146</v>
+      </c>
+      <c r="B155" t="s">
+        <v>369</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>203</v>
+      </c>
+      <c r="H155">
+        <v>2018</v>
+      </c>
+      <c r="I155" t="s">
+        <v>514</v>
+      </c>
+      <c r="J155" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>147</v>
+      </c>
+      <c r="B156" t="s">
+        <v>369</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>2023</v>
+      </c>
+      <c r="I156" t="s">
+        <v>515</v>
+      </c>
+      <c r="J156" t="s">
+        <v>488</v>
+      </c>
+      <c r="K156" t="s">
+        <v>489</v>
+      </c>
+      <c r="L156" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>148</v>
+      </c>
+      <c r="B157" t="s">
+        <v>369</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>203</v>
+      </c>
+      <c r="H157">
+        <v>2022</v>
+      </c>
+      <c r="I157" t="s">
+        <v>516</v>
+      </c>
+      <c r="J157" t="s">
+        <v>491</v>
+      </c>
+      <c r="K157" t="s">
+        <v>83</v>
+      </c>
+      <c r="L157" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>149</v>
+      </c>
+      <c r="B158" t="s">
+        <v>369</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>203</v>
+      </c>
+      <c r="H158">
+        <v>2017</v>
+      </c>
+      <c r="I158" t="s">
+        <v>174</v>
+      </c>
+      <c r="J158" t="s">
+        <v>493</v>
+      </c>
+      <c r="K158" t="s">
+        <v>476</v>
+      </c>
+      <c r="L158" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>150</v>
+      </c>
+      <c r="B159" t="s">
+        <v>369</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>203</v>
+      </c>
+      <c r="H159">
+        <v>2021</v>
+      </c>
+      <c r="I159" t="s">
+        <v>335</v>
+      </c>
+      <c r="J159" t="s">
+        <v>251</v>
+      </c>
+      <c r="K159" t="s">
+        <v>221</v>
+      </c>
+      <c r="L159" t="s">
+        <v>252</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159" s="6">
+        <v>0</v>
+      </c>
+      <c r="O159" s="6">
+        <v>793</v>
+      </c>
+      <c r="Q159" s="5">
+        <v>-0.12</v>
       </c>
     </row>
   </sheetData>
